--- a/team_results/sport/xlsx_sport_1_played_games_data.xlsx
+++ b/team_results/sport/xlsx_sport_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,32 +475,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021-09-11</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>assat</t>
         </is>
       </c>
     </row>
@@ -509,11 +509,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2021-09-11</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,14 +523,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -543,32 +543,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -577,32 +577,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-09-18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>hifk</t>
         </is>
       </c>
     </row>
@@ -611,11 +611,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-09-24</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -625,14 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -645,32 +645,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2021-09-24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -679,32 +679,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2021-09-29</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>karpat</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>karpat</t>
         </is>
       </c>
     </row>
@@ -713,28 +713,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2021-10-01</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -747,28 +747,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-10-07</t>
+          <t>2021-10-02</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -781,25 +781,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-10-09</t>
+          <t>2021-10-07</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -815,84 +815,84 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-10-13</t>
+          <t>2021-10-09</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>4</v>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-10-15</t>
+          <t>2021-10-13</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>hpk</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kookoo</t>
+          <t>hpk</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-10-16</t>
+          <t>2021-10-15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>kookoo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -901,14 +901,14 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>kookoo</t>
         </is>
       </c>
     </row>
@@ -917,28 +917,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2021-10-16</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -951,32 +951,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-10-27</t>
+          <t>2021-10-23</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -985,32 +985,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-10-30</t>
+          <t>2021-10-27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>tappara</t>
         </is>
       </c>
     </row>
@@ -1019,32 +1019,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-10-30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>pelicans</t>
         </is>
       </c>
     </row>
@@ -1053,16 +1053,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-11-05</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1087,16 +1087,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021-11-06</t>
+          <t>2021-11-05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1108,79 +1108,79 @@
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2021-11-06</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>jukurit</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-11-19</t>
+          <t>2021-11-17</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>karpat</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>hpk</t>
+          <t>karpat</t>
         </is>
       </c>
     </row>
@@ -1189,32 +1189,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-11-20</t>
+          <t>2021-11-19</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>hpk</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="G23" t="n">
-        <v>4</v>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>hpk</t>
         </is>
       </c>
     </row>
@@ -1223,11 +1223,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-11-24</t>
+          <t>2021-11-20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1237,18 +1237,18 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>tappara</t>
         </is>
       </c>
     </row>
@@ -1257,11 +1257,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2021-11-27</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1271,18 +1271,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>pelicans</t>
         </is>
       </c>
     </row>
@@ -1291,11 +1291,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-12-01</t>
+          <t>2021-11-27</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1305,18 +1305,18 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>jyp</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
-        <v>3</v>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -1325,100 +1325,100 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>hifk</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2021-12-04</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jyp</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-12-11</t>
+          <t>2021-12-10</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>karpat</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>kalpa</t>
+          <t>karpat</t>
         </is>
       </c>
     </row>
@@ -1427,32 +1427,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-12-26</t>
+          <t>2021-12-11</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>kalpa</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>lukko</t>
+          <t>kalpa</t>
         </is>
       </c>
     </row>
@@ -1461,11 +1461,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1475,18 +1475,18 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>lukko</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>hifk</t>
+          <t>lukko</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022-01-18</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>hifk</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>hifk</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2022-01-18</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>assat</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>tappara</t>
         </is>
       </c>
     </row>
@@ -1563,11 +1563,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1577,86 +1577,86 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>assat</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ilves</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>ilves</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>ilves</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="n">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2022-01-29</t>
+          <t>2021-11-26</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jyp</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jyp</t>
         </is>
       </c>
     </row>
@@ -1665,11 +1665,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
+          <t>2022-01-29</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1679,14 +1679,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>tappara</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1699,32 +1699,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2022-02-04</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>tappara</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -1733,16 +1733,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-02-04</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>jukurit</t>
+          <t>pelicans</t>
         </is>
       </c>
     </row>
@@ -1767,32 +1767,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jukurit</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>saipa</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jukurit</t>
         </is>
       </c>
     </row>
@@ -1801,11 +1801,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1815,18 +1815,18 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>saipa</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>jyp</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -1835,32 +1835,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>pelicans</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jyp</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>jyp</t>
         </is>
       </c>
     </row>
@@ -1869,25 +1869,25 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022-02-25</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>pelicans</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -1903,32 +1903,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>tps</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>sport</t>
-        </is>
-      </c>
       <c r="F44" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>tps</t>
+          <t>sport</t>
         </is>
       </c>
     </row>
@@ -1937,16 +1937,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>karpat</t>
+          <t>tps</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1955,12 +1955,46 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
+        <is>
+          <t>tps</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>434</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2021-12-17</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>karpat</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>sport</t>
         </is>

--- a/team_results/sport/xlsx_sport_1_played_games_data.xlsx
+++ b/team_results/sport/xlsx_sport_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>309</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>313</v>
@@ -1968,33 +1968,101 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>403</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>kookoo</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>kookoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
+        <v>407</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ilves</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>434</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>2021-12-17</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>karpat</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>sport</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>sport</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
         <v>0</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G48" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>sport</t>
         </is>
